--- a/src/main/resources/static/培养方案课程录入.xlsx
+++ b/src/main/resources/static/培养方案课程录入.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favian\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE117083-519E-4466-8337-719018E0DC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB438BCC-01F5-4B58-9956-FC35CB3DC680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,11 @@
     <sheet name="实践教学" sheetId="5" r:id="rId5"/>
     <sheet name="素质教育" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="major">公共基础!$D$5</definedName>
+    <definedName name="majorAndVersion">公共基础!$D$5:$E$6</definedName>
+    <definedName name="version">公共基础!$D$6</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -79,53 +84,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> ，名称后方不加专业两字</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{D386736C-BE67-4B8D-A73F-08092A1A12DF}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>在此处编辑版本号，提示:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-如 </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2024</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> ，只填4位数字</t>
         </r>
       </text>
     </comment>
@@ -865,7 +823,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -915,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="16">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -995,6 +953,11 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="未输入专业和版本!" error="请在D5单元格输入专业名称, 在D6单元格输入版本号码!" sqref="A10:E89" xr:uid="{299408C3-C513-40EB-BCBE-0F672EBAA76B}">
+      <formula1>AND(major&lt;&gt;"",version&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1006,7 +969,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="16">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1109,6 +1072,11 @@
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="未输入专业或版本!" error="请在公共基础sheet的D5单元格输入专业名称, 在D6单元格输入版本号码!" sqref="A8:E93" xr:uid="{B1E06669-4A23-42C2-8C87-D9D7AA63E9B2}">
+      <formula1>AND(major&lt;&gt;"",version&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1119,7 +1087,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1157,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="16">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1221,6 +1189,11 @@
     <mergeCell ref="A5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="未输入专业或版本!" error="请在公共基础sheet的D5单元格输入专业名称, 在D6单元格输入版本号码!" sqref="A8:E93" xr:uid="{104F85DA-45E5-43F2-8DF8-AF781E375120}">
+      <formula1>AND(major&lt;&gt;"",version&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1230,7 +1203,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="16">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1333,6 +1306,11 @@
     <mergeCell ref="A4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="未输入专业或版本!" error="请在公共基础sheet的D5单元格输入专业名称, 在D6单元格输入版本号码!" sqref="A8:E93" xr:uid="{86D48988-18BA-4D36-BF9A-980087EE529B}">
+      <formula1>AND(major&lt;&gt;"",version&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1342,7 +1320,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="16">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1435,6 +1413,11 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="未输入专业或版本!" error="请在公共基础sheet的D5单元格输入专业名称, 在D6单元格输入版本号码!" sqref="A8:D93" xr:uid="{DCE6B462-8736-471B-B2A8-F26108BF1A6E}">
+      <formula1>AND(major&lt;&gt;"",version&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1444,7 +1427,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="16">
-        <v>45314</v>
+        <v>45348</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1540,6 +1523,11 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="未输入专业或版本!" error="请在公共基础sheet的D5单元格输入专业名称, 在D6单元格输入版本号码!" sqref="A8:D93" xr:uid="{FCE2F6B6-ECD9-4871-8A68-C41A55B6E150}">
+      <formula1>AND(major&lt;&gt;"",version&lt;&gt;"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/培养方案课程录入.xlsx
+++ b/src/main/resources/static/培养方案课程录入.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Favian\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITEMSProject\GitlabManage\manage_system_bg\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB438BCC-01F5-4B58-9956-FC35CB3DC680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71187130-7AFA-4F4F-AC24-25EF251F00D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,6 +87,63 @@
         </r>
       </text>
     </comment>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{1BDC158B-B04A-4482-BECE-EDE0804535CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">在此处编辑版本号，提示:
+如 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2024</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve"> ，仅输入</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>4位</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>数字</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -305,7 +362,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +461,13 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -823,7 +887,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
